--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,56</t>
+          <t>-1,69; 2,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,36</t>
+          <t>-0,78; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,27</t>
+          <t>0,37; 4,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,64</t>
+          <t>-0,44; 3,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 189,41</t>
+          <t>-51,77; 172,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 534,68</t>
+          <t>-60,17; 441,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 1430,68</t>
+          <t>-16,91; 2076,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,83</t>
+          <t>-0,5; 3,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,46</t>
+          <t>-1,4; 1,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,11</t>
+          <t>-0,77; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,1</t>
+          <t>-3,48; 1,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 155,05</t>
+          <t>-13,06; 173,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 136,48</t>
+          <t>-56,06; 135,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 285,65</t>
+          <t>-42,73; 258,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 183,87</t>
+          <t>-83,89; 147,75</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,51</t>
+          <t>0,04; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,53</t>
+          <t>-1,62; 1,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,34</t>
+          <t>-0,42; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,82</t>
+          <t>-1,59; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 180,02</t>
+          <t>-2,84; 177,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 128,57</t>
+          <t>-56,34; 137,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 387,95</t>
+          <t>-35,95; 422,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,33; 219,93</t>
+          <t>-87,11; 276,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,49</t>
+          <t>0,11; 4,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,61</t>
+          <t>-2,63; 0,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,73</t>
+          <t>-1,59; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,27</t>
+          <t>-0,47; 1,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 423,04</t>
+          <t>-4,37; 391,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 53,96</t>
+          <t>-80,98; 40,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 201,92</t>
+          <t>-62,43; 203,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 545,75</t>
+          <t>-48,21; 520,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,91</t>
+          <t>-2,03; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,85</t>
+          <t>-1,35; 1,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,65</t>
+          <t>-1,47; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,24</t>
+          <t>-1,16; 1,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 144,58</t>
+          <t>-41,96; 139,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 478,24</t>
+          <t>-77,58; 329,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,66; 363,82</t>
+          <t>-80,93; 315,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 155,29</t>
+          <t>-54,84; 172,95</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,52</t>
+          <t>0,42; 4,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,61</t>
+          <t>-1,02; 1,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,56</t>
+          <t>-0,78; 2,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,93</t>
+          <t>-0,75; 0,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 270,18</t>
+          <t>10,14; 285,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 296,26</t>
+          <t>-65,24; 270,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 245,8</t>
+          <t>-35,81; 246,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 143,07</t>
+          <t>-46,39; 126,2</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,62</t>
+          <t>0,77; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,61</t>
+          <t>-0,7; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,39</t>
+          <t>0,12; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,6</t>
+          <t>-0,35; 0,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,25; 101,58</t>
+          <t>21,47; 101,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 47,75</t>
+          <t>-33,95; 49,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 127,53</t>
+          <t>4,46; 129,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 68,6</t>
+          <t>-24,23; 83,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,73</t>
+          <t>-1,59; 2,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,12</t>
+          <t>-0,79; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,56</t>
+          <t>0,38; 4,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 172,36</t>
+          <t>-46,36; 183,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 441,69</t>
+          <t>-56,4; 514,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 2076,72</t>
+          <t>-20,62; 1378,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,84</t>
+          <t>-0,6; 3,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,44</t>
+          <t>-1,44; 1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,17</t>
+          <t>-0,97; 2,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 173,21</t>
+          <t>-16,0; 166,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 135,08</t>
+          <t>-58,45; 153,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 258,12</t>
+          <t>-46,49; 272,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,52</t>
+          <t>-0,0; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,62</t>
+          <t>-1,74; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,28</t>
+          <t>-0,34; 2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 177,06</t>
+          <t>-2,82; 190,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 137,39</t>
+          <t>-59,19; 129,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 422,4</t>
+          <t>-26,95; 375,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,26</t>
+          <t>0,19; 4,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,49</t>
+          <t>-2,84; 0,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,73</t>
+          <t>-1,47; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 391,33</t>
+          <t>-3,77; 419,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,98; 40,48</t>
+          <t>-82,24; 76,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 203,29</t>
+          <t>-61,81; 180,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,78</t>
+          <t>-2,0; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,68</t>
+          <t>-1,17; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,67</t>
+          <t>-1,48; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 139,89</t>
+          <t>-40,81; 154,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 329,24</t>
+          <t>-65,31; 455,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 315,41</t>
+          <t>-78,95; 348,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,58</t>
+          <t>0,37; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,58</t>
+          <t>-0,98; 1,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,55</t>
+          <t>-0,77; 2,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 285,35</t>
+          <t>7,52; 272,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 270,76</t>
+          <t>-63,12; 345,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 246,13</t>
+          <t>-31,15; 232,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,58</t>
+          <t>0,75; 2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,66</t>
+          <t>-0,68; 0,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,42</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,47; 101,85</t>
+          <t>20,81; 103,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 49,59</t>
+          <t>-34,8; 47,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 129,15</t>
+          <t>7,94; 137,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,5</t>
+          <t>-1,59; 2,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,36</t>
+          <t>-0,8; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,29</t>
+          <t>0,22; 4,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,74</t>
+          <t>-0,44; 3,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 183,07</t>
+          <t>-47,34; 189,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 514,44</t>
+          <t>-59,59; 534,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 1378,37</t>
+          <t>-26,19; 1430,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,78</t>
+          <t>-0,66; 3,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,7</t>
+          <t>-1,49; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,09</t>
+          <t>-0,94; 2,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,1</t>
+          <t>-3,43; 1,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 166,1</t>
+          <t>-19,64; 155,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 153,3</t>
+          <t>-58,58; 136,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 272,56</t>
+          <t>-43,26; 285,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 147,75</t>
+          <t>-86,42; 183,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,71</t>
+          <t>0,01; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,56</t>
+          <t>-1,8; 1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,26</t>
+          <t>-0,33; 2,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,88</t>
+          <t>-1,48; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 190,46</t>
+          <t>-2,02; 180,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 129,06</t>
+          <t>-62,89; 128,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 375,87</t>
+          <t>-32,68; 387,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,11; 276,79</t>
+          <t>-83,33; 219,93</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,41</t>
+          <t>0,01; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,73</t>
+          <t>-2,97; 0,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,65</t>
+          <t>-1,41; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,31</t>
+          <t>-0,38; 1,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 419,84</t>
+          <t>-7,14; 423,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,24; 76,75</t>
+          <t>-84,2; 53,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,81; 180,77</t>
+          <t>-60,05; 201,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 520,78</t>
+          <t>-55,26; 545,75</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,77</t>
+          <t>-1,9; 3,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,86</t>
+          <t>-1,44; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,27 +1083,27 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,32</t>
+          <t>-1,27; 1,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 154,75</t>
+          <t>-40,12; 144,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 455,75</t>
+          <t>-73,07; 478,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 348,72</t>
+          <t>-78,66; 363,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 172,95</t>
+          <t>-57,09; 155,29</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,44</t>
+          <t>0,23; 4,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,61</t>
+          <t>-0,99; 1,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,59</t>
+          <t>-0,62; 2,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,91</t>
+          <t>-0,79; 0,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,52; 272,14</t>
+          <t>1,96; 270,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 345,36</t>
+          <t>-60,91; 296,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 232,12</t>
+          <t>-31,94; 245,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 126,2</t>
+          <t>-47,54; 143,07</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,65</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,63</t>
+          <t>-0,66; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,13; 1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,71</t>
+          <t>-0,44; 0,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,81; 103,04</t>
+          <t>23,25; 101,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 47,48</t>
+          <t>-33,18; 47,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 137,01</t>
+          <t>6,54; 127,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 83,04</t>
+          <t>-29,79; 68,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>285,87%</t>
+          <t>316,21%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,64</t>
+          <t>-0,4; 3,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,79%</t>
+          <t>-43,42%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,1</t>
+          <t>-3,72; 0,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 183,87</t>
+          <t>-89,44; 141,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>-25,81%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,82</t>
+          <t>-1,56; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,33; 219,93</t>
+          <t>-84,52; 198,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>135,33%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,27</t>
+          <t>-0,2; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 545,75</t>
+          <t>-41,4; 920,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,24</t>
+          <t>-1,34; 1,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 155,29</t>
+          <t>-59,39; 148,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>413,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>-20,85%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,52</t>
+          <t>2,02; 7,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,61</t>
+          <t>-1,32; 1,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,56</t>
+          <t>-1,04; 2,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,93</t>
+          <t>-1,73; 0,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 270,18</t>
+          <t>68,05; 2114,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 296,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 245,8</t>
+          <t>-58,37; 677,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 143,07</t>
+          <t>-77,33; 94,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>47,12%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,0; 3,09</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,67</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,66</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 1,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-62,61; 128,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-67,8; 415,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-59,85; 290,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-59,87; 444,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>59,15%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,81; 2,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,66; 0,61</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,13; 1,39</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 0,6</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 0,6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>23,25; 101,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-33,18; 47,75</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,54; 127,53</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-29,79; 68,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,23; 73,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
